--- a/biology/Microbiologie/Synhymeniida/Synhymeniida.xlsx
+++ b/biology/Microbiologie/Synhymeniida/Synhymeniida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Synhymeniida (ou Synhymenida) sont un ordre de Ciliés de la classe des Nassophorea.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de l'ordre des Synhymeniida ont une taille petite (&lt; 80 μm) à moyenne (80 à 200 μm). Leur forme est cylindrique. Leur ciliation somatique est typiquement holotriche (c.-à-d. uniforme) avec des cinéties bipolaires. Ils ont une frange hypostomiale ou synhyménium de dikinetides ou de petits polykinetides, s'étendant de la surface postorale droite du corps à la surface dorsale gauche du corps, encerclant presque le corps dans certaines formes. Ils n'ont pas d'atrium prébuccal. Un cyrtos est visible. Ce sont des formes libres dans leur milieu de vie[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de l'ordre des Synhymeniida ont une taille petite (&lt; 80 μm) à moyenne (80 à 200 μm). Leur forme est cylindrique. Leur ciliation somatique est typiquement holotriche (c.-à-d. uniforme) avec des cinéties bipolaires. Ils ont une frange hypostomiale ou synhyménium de dikinetides ou de petits polykinetides, s'étendant de la surface postorale droite du corps à la surface dorsale gauche du corps, encerclant presque le corps dans certaines formes. Ils n'ont pas d'atrium prébuccal. Un cyrtos est visible. Ce sont des formes libres dans leur milieu de vie. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de l'ordre des Synhymeniida vivent en eau douce, certaines espèces sont marines, d'autres sont interstitielles (c. à d. vivent entre les grains et les particules des milieux sablonneux)[1]. Elles se répartissent dans l'ensemble des mers et océans du globe[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de l'ordre des Synhymeniida vivent en eau douce, certaines espèces sont marines, d'autres sont interstitielles (c. à d. vivent entre les grains et les particules des milieux sablonneux). Elles se répartissent dans l'ensemble des mers et océans du globe.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (26 juillet 2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (26 juillet 2023) :
 Orthodonellidae Jankowksi, 1968
-Selon Lynn (2008)[1] :
+Selon Lynn (2008) :
 Nassulopsidae Deroux in Corliss, 1979
 Orthodonellidae Jankowski, 1968
 Scaphidiodontidae Deroux in Corliss, 1979
@@ -609,9 +627,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Synhymeniida de Puytorac et al., 1974[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Synhymeniida de Puytorac et al., 1974.
 </t>
         </is>
       </c>
